--- a/R/analysis/data/Pt_16_Control.xlsx
+++ b/R/analysis/data/Pt_16_Control.xlsx
@@ -524,7 +524,7 @@
         <v>0.71</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>1.14</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.6</v>
+        <v>4.6</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
@@ -635,16 +635,16 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>5.85</v>
+        <v>0.66</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.46</v>
+        <v>4.14</v>
       </c>
       <c r="M4" t="n">
-        <v>3.89</v>
+        <v>0.35</v>
       </c>
       <c r="N4" t="n">
-        <v>0.25</v>
+        <v>2.75</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>2.83</v>
+        <v>1.41</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>1.84</v>
       </c>
       <c r="K6" t="n">
-        <v>3.03</v>
+        <v>0.89</v>
       </c>
       <c r="L6" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>0.71</v>
@@ -815,16 +815,16 @@
         <v>2.44</v>
       </c>
       <c r="K7" t="n">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>0.35</v>
       </c>
       <c r="N7" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
       </c>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>1.5</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.75</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.91</v>
@@ -991,16 +991,16 @@
         <v>1.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5.78</v>
+        <v>0.48</v>
       </c>
       <c r="L10" t="n">
-        <v>0.34</v>
+        <v>4.09</v>
       </c>
       <c r="M10" t="n">
-        <v>3.89</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>1.14</v>
       </c>
       <c r="L12" t="n">
-        <v>-4.4</v>
+        <v>4.4</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
@@ -1165,10 +1165,10 @@
         <v>2.32</v>
       </c>
       <c r="K13" t="n">
-        <v>6.73</v>
+        <v>0.51</v>
       </c>
       <c r="L13" t="n">
-        <v>0.36</v>
+        <v>4.76</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
@@ -1282,7 +1282,7 @@
         <v>2.32</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.83</v>
+        <v>3.83</v>
       </c>
       <c r="M15" t="n">
         <v>1.41</v>
@@ -1337,10 +1337,10 @@
         <v>1.2</v>
       </c>
       <c r="K16" t="n">
-        <v>6.51</v>
+        <v>1.1</v>
       </c>
       <c r="L16" t="n">
-        <v>0.77</v>
+        <v>4.61</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
@@ -1454,7 +1454,7 @@
         <v>2.16</v>
       </c>
       <c r="L18" t="n">
-        <v>-4.33</v>
+        <v>4.33</v>
       </c>
       <c r="M18" t="n">
         <v>0.71</v>
@@ -1509,10 +1509,10 @@
         <v>1.23</v>
       </c>
       <c r="K19" t="n">
-        <v>7.3</v>
+        <v>1.18</v>
       </c>
       <c r="L19" t="n">
-        <v>0.84</v>
+        <v>5.16</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>1.26</v>
       </c>
       <c r="L21" t="n">
-        <v>-4.75</v>
+        <v>4.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.73</v>
@@ -1683,16 +1683,16 @@
         <v>1.37</v>
       </c>
       <c r="K22" t="n">
-        <v>5.48</v>
+        <v>1.24</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.88</v>
+        <v>3.88</v>
       </c>
       <c r="M22" t="n">
-        <v>6.01</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.75</v>
+        <v>4.25</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0.89</v>
       </c>
       <c r="L24" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="M24" t="n">
         <v>0.58</v>
@@ -1859,16 +1859,16 @@
         <v>1.25</v>
       </c>
       <c r="K25" t="n">
-        <v>4.97</v>
+        <v>0.12</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.08</v>
+        <v>3.52</v>
       </c>
       <c r="M25" t="n">
-        <v>3.06</v>
+        <v>0.23</v>
       </c>
       <c r="N25" t="n">
-        <v>0.17</v>
+        <v>2.16</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>1.14</v>
       </c>
       <c r="L27" t="n">
-        <v>-2.4</v>
+        <v>2.4</v>
       </c>
       <c r="M27" t="n">
         <v>1.73</v>
@@ -2035,16 +2035,16 @@
         <v>1.71</v>
       </c>
       <c r="K28" t="n">
-        <v>4.32</v>
+        <v>0.93</v>
       </c>
       <c r="L28" t="n">
-        <v>0.66</v>
+        <v>3.05</v>
       </c>
       <c r="M28" t="n">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
